--- a/src/main/resources/test1.xlsx
+++ b/src/main/resources/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\projects\GitForExcel\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4F641A-9109-46C5-A05C-4B2545E0DCC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB52A0-7A49-4645-9A12-D6E82B461E95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
